--- a/TECH.xlsx
+++ b/TECH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="Questa_cartella_di_lavoro"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Il mio Drive\EFS\EW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\EFS\EW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9503F9A4-00CC-4BAD-8557-B932C8AB3AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F82C714-11F3-4796-9E5B-4FD07B20148F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TECH" sheetId="16" r:id="rId1"/>
@@ -2177,22 +2177,22 @@
   <dimension ref="A1:T377"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D279" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:T1048576"/>
+      <selection pane="bottomRight" activeCell="O329" sqref="O329"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="11"/>
-    <col min="3" max="3" width="29.44140625" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="20" max="20" width="173.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.90625" style="11"/>
+    <col min="3" max="3" width="29.453125" customWidth="1"/>
+    <col min="4" max="4" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.08984375" customWidth="1"/>
+    <col min="20" max="20" width="173.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B1" s="11" t="s">
         <v>56</v>
       </c>
@@ -2209,7 +2209,7 @@
       <c r="M1" s="19"/>
       <c r="N1" s="19"/>
     </row>
-    <row r="2" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>267</v>
@@ -2266,7 +2266,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
         <v>76</v>
@@ -2289,7 +2289,7 @@
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>0</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>5</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>6</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>7</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>9</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>10</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>11</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>12</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>13</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>14</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>15</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>16</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>17</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>18</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>19</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>20</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>21</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>22</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>23</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>24</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>25</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>26</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>27</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
         <v>28</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="11">
         <v>29</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>30</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" s="11">
         <v>31</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="8">
         <v>32</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" s="11">
         <v>33</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" s="8">
         <v>34</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" s="11">
         <v>35</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" s="8">
         <v>36</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" s="11">
         <v>37</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
         <v>38</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" s="11">
         <v>39</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" s="8">
         <v>40</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" s="11">
         <v>41</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" s="8">
         <v>42</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47" s="11">
         <v>43</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48" s="8">
         <v>44</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" s="11">
         <v>45</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" s="8">
         <v>46</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" s="11">
         <v>47</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52" s="8">
         <v>48</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53" s="11">
         <v>49</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54" s="8">
         <v>50</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55" s="11">
         <v>51</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56" s="8">
         <v>52</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57" s="11">
         <v>53</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58" s="8">
         <v>54</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A59" s="11">
         <v>55</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60" s="8">
         <v>56</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61" s="11">
         <v>57</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A62" s="8">
         <v>58</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A63" s="11">
         <v>59</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64" s="8">
         <v>60</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A65" s="11">
         <v>61</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A66" s="8">
         <v>62</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A67" s="11">
         <v>63</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A68" s="8">
         <v>64</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A69" s="11">
         <v>65</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A70" s="8">
         <v>66</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A71" s="11">
         <v>67</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A72" s="8">
         <v>68</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A73" s="11">
         <v>69</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A74" s="8">
         <v>70</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A75" s="11">
         <v>71</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A76" s="8">
         <v>72</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A77" s="11">
         <v>73</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A78" s="8">
         <v>74</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A79" s="11">
         <v>75</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A80" s="8">
         <v>76</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A81" s="11">
         <v>77</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A82" s="8">
         <v>78</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A83" s="11">
         <v>79</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A84" s="8">
         <v>80</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A85" s="11">
         <v>81</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A86" s="8">
         <v>82</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A87" s="11">
         <v>83</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A88" s="8">
         <v>84</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A89" s="11">
         <v>85</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A90" s="8">
         <v>86</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A91" s="11">
         <v>87</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A92" s="8">
         <v>88</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A93" s="11">
         <v>89</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A94" s="8">
         <v>90</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A95" s="11">
         <v>91</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A96" s="8">
         <v>92</v>
       </c>
@@ -8056,7 +8056,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A97" s="11">
         <v>93</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A98" s="8">
         <v>94</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A99" s="11">
         <v>95</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A100" s="8">
         <v>96</v>
       </c>
@@ -8304,7 +8304,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A101" s="11">
         <v>97</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A102" s="8">
         <v>98</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A103" s="11">
         <v>99</v>
       </c>
@@ -8490,7 +8490,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A104" s="8">
         <v>100</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A105" s="11">
         <v>101</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A106" s="8">
         <v>102</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A107" s="11">
         <v>103</v>
       </c>
@@ -8738,7 +8738,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A108" s="8">
         <v>104</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A109" s="11">
         <v>105</v>
       </c>
@@ -8862,7 +8862,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A110" s="8">
         <v>106</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A111" s="11">
         <v>107</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A112" s="8">
         <v>108</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A113" s="11">
         <v>109</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A114" s="8">
         <v>110</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A115" s="11">
         <v>111</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A116" s="8">
         <v>112</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A117" s="11">
         <v>113</v>
       </c>
@@ -9358,7 +9358,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A118" s="8">
         <v>114</v>
       </c>
@@ -9420,7 +9420,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A119" s="11">
         <v>115</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A120" s="8">
         <v>116</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A121" s="11">
         <v>117</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A122" s="8">
         <v>118</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A123" s="11">
         <v>119</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A124" s="8">
         <v>120</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A125" s="11">
         <v>121</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A126" s="8">
         <v>122</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A127" s="11">
         <v>123</v>
       </c>
@@ -9978,7 +9978,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A128" s="8">
         <v>124</v>
       </c>
@@ -10040,7 +10040,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A129" s="11">
         <v>125</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A130" s="8">
         <v>126</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A131" s="11">
         <v>127</v>
       </c>
@@ -10226,7 +10226,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A132" s="8">
         <v>128</v>
       </c>
@@ -10288,7 +10288,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A133" s="11">
         <v>129</v>
       </c>
@@ -10350,7 +10350,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A134" s="8">
         <v>130</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A135" s="11">
         <v>131</v>
       </c>
@@ -10474,7 +10474,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A136" s="8">
         <v>132</v>
       </c>
@@ -10536,7 +10536,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A137" s="11">
         <v>133</v>
       </c>
@@ -10598,7 +10598,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A138" s="8">
         <v>134</v>
       </c>
@@ -10660,7 +10660,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A139" s="11">
         <v>135</v>
       </c>
@@ -10722,7 +10722,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A140" s="8">
         <v>136</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A141" s="11">
         <v>137</v>
       </c>
@@ -10846,7 +10846,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A142" s="8">
         <v>138</v>
       </c>
@@ -10908,7 +10908,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A143" s="11">
         <v>139</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A144" s="8">
         <v>140</v>
       </c>
@@ -11032,7 +11032,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A145" s="11">
         <v>141</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A146" s="8">
         <v>142</v>
       </c>
@@ -11156,7 +11156,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A147" s="11">
         <v>143</v>
       </c>
@@ -11218,7 +11218,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A148" s="8">
         <v>144</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A149" s="11">
         <v>145</v>
       </c>
@@ -11342,7 +11342,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A150" s="8">
         <v>146</v>
       </c>
@@ -11404,7 +11404,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A151" s="11">
         <v>147</v>
       </c>
@@ -11466,7 +11466,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A152" s="8">
         <v>148</v>
       </c>
@@ -11528,7 +11528,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A153" s="11">
         <v>149</v>
       </c>
@@ -11590,7 +11590,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A154" s="8">
         <v>150</v>
       </c>
@@ -11652,7 +11652,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A155" s="11">
         <v>151</v>
       </c>
@@ -11714,7 +11714,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A156" s="8">
         <v>152</v>
       </c>
@@ -11776,7 +11776,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A157" s="11">
         <v>153</v>
       </c>
@@ -11838,7 +11838,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A158" s="8">
         <v>154</v>
       </c>
@@ -11900,7 +11900,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A159" s="11">
         <v>155</v>
       </c>
@@ -11962,7 +11962,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A160" s="8">
         <v>156</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A161" s="11">
         <v>157</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A162" s="8">
         <v>158</v>
       </c>
@@ -12148,7 +12148,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A163" s="11">
         <v>159</v>
       </c>
@@ -12210,7 +12210,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A164" s="8">
         <v>160</v>
       </c>
@@ -12272,7 +12272,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A165" s="11">
         <v>161</v>
       </c>
@@ -12334,7 +12334,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A166" s="8">
         <v>162</v>
       </c>
@@ -12396,7 +12396,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A167" s="11">
         <v>163</v>
       </c>
@@ -12458,7 +12458,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A168" s="8">
         <v>164</v>
       </c>
@@ -12520,7 +12520,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A169" s="11">
         <v>165</v>
       </c>
@@ -12582,7 +12582,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A170" s="8">
         <v>166</v>
       </c>
@@ -12644,7 +12644,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A171" s="11">
         <v>167</v>
       </c>
@@ -12706,7 +12706,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A172" s="8">
         <v>168</v>
       </c>
@@ -12768,7 +12768,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A173" s="11">
         <v>169</v>
       </c>
@@ -12830,7 +12830,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A174" s="8">
         <v>170</v>
       </c>
@@ -12892,7 +12892,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A175" s="11">
         <v>171</v>
       </c>
@@ -12954,7 +12954,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A176" s="8">
         <v>172</v>
       </c>
@@ -13016,7 +13016,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="177" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A177" s="11">
         <v>173</v>
       </c>
@@ -13078,7 +13078,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A178" s="8">
         <v>174</v>
       </c>
@@ -13140,7 +13140,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A179" s="11">
         <v>175</v>
       </c>
@@ -13202,7 +13202,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A180" s="8">
         <v>176</v>
       </c>
@@ -13264,7 +13264,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A181" s="11">
         <v>177</v>
       </c>
@@ -13326,7 +13326,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A182" s="8">
         <v>178</v>
       </c>
@@ -13388,7 +13388,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A183" s="11">
         <v>179</v>
       </c>
@@ -13450,7 +13450,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A184" s="8">
         <v>180</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A185" s="11">
         <v>181</v>
       </c>
@@ -13574,7 +13574,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A186" s="8">
         <v>182</v>
       </c>
@@ -13636,7 +13636,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A187" s="11">
         <v>183</v>
       </c>
@@ -13698,7 +13698,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A188" s="8">
         <v>184</v>
       </c>
@@ -13760,7 +13760,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A189" s="11">
         <v>185</v>
       </c>
@@ -13822,7 +13822,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A190" s="8">
         <v>186</v>
       </c>
@@ -13884,7 +13884,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A191" s="11">
         <v>187</v>
       </c>
@@ -13946,7 +13946,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A192" s="8">
         <v>188</v>
       </c>
@@ -14008,7 +14008,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A193" s="11">
         <v>189</v>
       </c>
@@ -14070,7 +14070,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A194" s="8">
         <v>190</v>
       </c>
@@ -14132,7 +14132,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A195" s="11">
         <v>191</v>
       </c>
@@ -14194,7 +14194,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A196" s="8">
         <v>192</v>
       </c>
@@ -14256,7 +14256,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A197" s="11">
         <v>193</v>
       </c>
@@ -14318,7 +14318,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A198" s="8">
         <v>194</v>
       </c>
@@ -14380,7 +14380,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A199" s="11">
         <v>195</v>
       </c>
@@ -14442,7 +14442,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A200" s="8">
         <v>196</v>
       </c>
@@ -14504,7 +14504,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A201" s="11">
         <v>197</v>
       </c>
@@ -14566,7 +14566,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A202" s="8">
         <v>198</v>
       </c>
@@ -14628,7 +14628,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A203" s="11">
         <v>199</v>
       </c>
@@ -14690,7 +14690,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A204" s="8">
         <v>200</v>
       </c>
@@ -14752,7 +14752,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A205" s="11">
         <v>201</v>
       </c>
@@ -14814,7 +14814,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A206" s="8">
         <v>202</v>
       </c>
@@ -14876,7 +14876,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A207" s="11">
         <v>203</v>
       </c>
@@ -14938,7 +14938,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A208" s="8">
         <v>204</v>
       </c>
@@ -15000,7 +15000,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A209" s="11">
         <v>205</v>
       </c>
@@ -15062,7 +15062,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A210" s="8">
         <v>206</v>
       </c>
@@ -15124,7 +15124,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A211" s="11">
         <v>207</v>
       </c>
@@ -15186,7 +15186,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A212" s="8">
         <v>208</v>
       </c>
@@ -15248,7 +15248,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A213" s="11">
         <v>209</v>
       </c>
@@ -15310,7 +15310,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A214" s="8">
         <v>210</v>
       </c>
@@ -15372,7 +15372,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A215" s="11">
         <v>211</v>
       </c>
@@ -15434,7 +15434,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A216" s="8">
         <v>212</v>
       </c>
@@ -15496,7 +15496,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A217" s="11">
         <v>213</v>
       </c>
@@ -15558,7 +15558,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A218" s="8">
         <v>214</v>
       </c>
@@ -15620,7 +15620,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A219" s="11">
         <v>215</v>
       </c>
@@ -15682,7 +15682,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A220" s="8">
         <v>216</v>
       </c>
@@ -15744,7 +15744,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A221" s="11">
         <v>217</v>
       </c>
@@ -15806,7 +15806,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A222" s="8">
         <v>218</v>
       </c>
@@ -15868,7 +15868,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A223" s="11">
         <v>219</v>
       </c>
@@ -15930,7 +15930,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A224" s="8">
         <v>220</v>
       </c>
@@ -15992,7 +15992,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A225" s="11">
         <v>221</v>
       </c>
@@ -16054,7 +16054,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A226" s="8">
         <v>222</v>
       </c>
@@ -16116,7 +16116,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A227" s="11">
         <v>223</v>
       </c>
@@ -16178,7 +16178,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A228" s="8">
         <v>224</v>
       </c>
@@ -16240,7 +16240,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A229" s="11">
         <v>225</v>
       </c>
@@ -16302,7 +16302,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A230" s="8">
         <v>226</v>
       </c>
@@ -16364,7 +16364,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A231" s="11">
         <v>227</v>
       </c>
@@ -16426,7 +16426,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A232" s="8">
         <v>228</v>
       </c>
@@ -16488,7 +16488,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A233" s="11">
         <v>229</v>
       </c>
@@ -16550,7 +16550,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A234" s="8">
         <v>230</v>
       </c>
@@ -16612,7 +16612,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A235" s="11">
         <v>231</v>
       </c>
@@ -16674,7 +16674,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A236" s="8">
         <v>232</v>
       </c>
@@ -16736,7 +16736,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A237" s="11">
         <v>233</v>
       </c>
@@ -16798,7 +16798,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A238" s="8">
         <v>234</v>
       </c>
@@ -16860,7 +16860,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A239" s="11">
         <v>235</v>
       </c>
@@ -16922,7 +16922,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A240" s="8">
         <v>236</v>
       </c>
@@ -16984,7 +16984,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A241" s="11">
         <v>237</v>
       </c>
@@ -17046,7 +17046,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A242" s="8">
         <v>238</v>
       </c>
@@ -17108,7 +17108,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A243" s="11">
         <v>239</v>
       </c>
@@ -17170,7 +17170,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A244" s="8">
         <v>240</v>
       </c>
@@ -17232,7 +17232,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A245" s="11">
         <v>241</v>
       </c>
@@ -17294,7 +17294,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A246" s="11" t="s">
         <v>279</v>
       </c>
@@ -17356,7 +17356,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A247" s="11" t="s">
         <v>280</v>
       </c>
@@ -17418,7 +17418,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A248" s="11" t="s">
         <v>281</v>
       </c>
@@ -17480,7 +17480,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A249" s="11" t="s">
         <v>364</v>
       </c>
@@ -17524,7 +17524,7 @@
         <v>0</v>
       </c>
       <c r="O249">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="P249" s="1">
         <v>15</v>
@@ -17542,7 +17542,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A250" s="11" t="s">
         <v>365</v>
       </c>
@@ -17586,7 +17586,7 @@
         <v>0</v>
       </c>
       <c r="O250">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="P250" s="1">
         <v>15</v>
@@ -17604,7 +17604,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A251" s="11" t="s">
         <v>366</v>
       </c>
@@ -17648,7 +17648,7 @@
         <v>0</v>
       </c>
       <c r="O251">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="P251" s="1">
         <v>15</v>
@@ -17666,7 +17666,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A252" s="11" t="s">
         <v>367</v>
       </c>
@@ -17710,7 +17710,7 @@
         <v>0</v>
       </c>
       <c r="O252">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="P252" s="1">
         <v>15</v>
@@ -17728,7 +17728,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A253" s="11" t="s">
         <v>368</v>
       </c>
@@ -17772,7 +17772,7 @@
         <v>0</v>
       </c>
       <c r="O253">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="P253" s="1">
         <v>15</v>
@@ -17790,7 +17790,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A254" s="11" t="s">
         <v>369</v>
       </c>
@@ -17834,7 +17834,7 @@
         <v>0</v>
       </c>
       <c r="O254">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="P254" s="1">
         <v>15</v>
@@ -17852,7 +17852,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A255" s="11" t="s">
         <v>370</v>
       </c>
@@ -17896,7 +17896,7 @@
         <v>0</v>
       </c>
       <c r="O255">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="P255" s="1">
         <v>15</v>
@@ -17914,7 +17914,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A256" s="11" t="s">
         <v>371</v>
       </c>
@@ -17958,7 +17958,7 @@
         <v>0</v>
       </c>
       <c r="O256">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="P256" s="1">
         <v>15</v>
@@ -17976,7 +17976,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A257" s="11" t="s">
         <v>372</v>
       </c>
@@ -18020,7 +18020,7 @@
         <v>0</v>
       </c>
       <c r="O257">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="P257" s="1">
         <v>15</v>
@@ -18038,7 +18038,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A258" s="11" t="s">
         <v>373</v>
       </c>
@@ -18100,7 +18100,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A259" s="11" t="s">
         <v>374</v>
       </c>
@@ -18162,7 +18162,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A260" s="11" t="s">
         <v>375</v>
       </c>
@@ -18224,7 +18224,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A261" s="11" t="s">
         <v>376</v>
       </c>
@@ -18286,7 +18286,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A262" s="11" t="s">
         <v>378</v>
       </c>
@@ -18348,7 +18348,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A263" s="11" t="s">
         <v>379</v>
       </c>
@@ -18410,7 +18410,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A264" s="11" t="s">
         <v>380</v>
       </c>
@@ -18472,7 +18472,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A265" s="11" t="s">
         <v>381</v>
       </c>
@@ -18534,7 +18534,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A266" s="11" t="s">
         <v>382</v>
       </c>
@@ -18596,7 +18596,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A267" s="11" t="s">
         <v>383</v>
       </c>
@@ -18616,7 +18616,7 @@
         <v>227</v>
       </c>
       <c r="G267">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="H267">
         <v>0</v>
@@ -18640,7 +18640,7 @@
         <v>0</v>
       </c>
       <c r="O267">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="P267" s="1">
         <v>15</v>
@@ -18658,7 +18658,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A268" s="11" t="s">
         <v>384</v>
       </c>
@@ -18720,7 +18720,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A269" s="11" t="s">
         <v>385</v>
       </c>
@@ -18782,7 +18782,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A270" s="11" t="s">
         <v>386</v>
       </c>
@@ -18844,7 +18844,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A271" s="11" t="s">
         <v>387</v>
       </c>
@@ -18906,7 +18906,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A272" s="11" t="s">
         <v>388</v>
       </c>
@@ -18968,7 +18968,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A273" s="11" t="s">
         <v>389</v>
       </c>
@@ -19030,7 +19030,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A274" s="11" t="s">
         <v>390</v>
       </c>
@@ -19092,7 +19092,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A275" s="11" t="s">
         <v>391</v>
       </c>
@@ -19154,7 +19154,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A276" s="11" t="s">
         <v>392</v>
       </c>
@@ -19216,7 +19216,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A277" s="11" t="s">
         <v>393</v>
       </c>
@@ -19278,7 +19278,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A278" s="11" t="s">
         <v>394</v>
       </c>
@@ -19340,7 +19340,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A279" s="11" t="s">
         <v>395</v>
       </c>
@@ -19402,7 +19402,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A280" s="11" t="s">
         <v>396</v>
       </c>
@@ -19464,7 +19464,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A281" s="11" t="s">
         <v>397</v>
       </c>
@@ -19526,7 +19526,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A282" s="11" t="s">
         <v>398</v>
       </c>
@@ -19588,7 +19588,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A283" s="11" t="s">
         <v>399</v>
       </c>
@@ -19650,7 +19650,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A284" s="11" t="s">
         <v>400</v>
       </c>
@@ -19712,7 +19712,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A285" s="11" t="s">
         <v>401</v>
       </c>
@@ -19774,7 +19774,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A286" s="11" t="s">
         <v>402</v>
       </c>
@@ -19836,7 +19836,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A287" s="11" t="s">
         <v>403</v>
       </c>
@@ -19898,7 +19898,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A288" s="11" t="s">
         <v>404</v>
       </c>
@@ -19960,7 +19960,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A289" s="11" t="s">
         <v>405</v>
       </c>
@@ -20022,7 +20022,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A290" s="11" t="s">
         <v>406</v>
       </c>
@@ -20084,7 +20084,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A291" s="11" t="s">
         <v>407</v>
       </c>
@@ -20146,7 +20146,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A292" s="11" t="s">
         <v>408</v>
       </c>
@@ -20208,7 +20208,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A293" s="11" t="s">
         <v>409</v>
       </c>
@@ -20270,7 +20270,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A294" s="11" t="s">
         <v>410</v>
       </c>
@@ -20332,7 +20332,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A295" s="11" t="s">
         <v>411</v>
       </c>
@@ -20394,7 +20394,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A296" s="11" t="s">
         <v>412</v>
       </c>
@@ -20456,7 +20456,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A297" s="11" t="s">
         <v>413</v>
       </c>
@@ -20518,7 +20518,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A298" s="11" t="s">
         <v>414</v>
       </c>
@@ -20580,7 +20580,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A299" s="11" t="s">
         <v>415</v>
       </c>
@@ -20642,7 +20642,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A300" s="11" t="s">
         <v>416</v>
       </c>
@@ -20704,7 +20704,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A301" s="11" t="s">
         <v>417</v>
       </c>
@@ -20766,7 +20766,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A302" s="11" t="s">
         <v>418</v>
       </c>
@@ -20828,7 +20828,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A303" s="11" t="s">
         <v>419</v>
       </c>
@@ -20890,7 +20890,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A304" s="11" t="s">
         <v>420</v>
       </c>
@@ -20952,7 +20952,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A305" s="11" t="s">
         <v>421</v>
       </c>
@@ -20972,7 +20972,7 @@
         <v>225</v>
       </c>
       <c r="G305">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="H305">
         <v>0</v>
@@ -20996,7 +20996,7 @@
         <v>0</v>
       </c>
       <c r="O305">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="P305" s="1">
         <v>15</v>
@@ -21014,7 +21014,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A306" s="11" t="s">
         <v>422</v>
       </c>
@@ -21076,7 +21076,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A307" s="11" t="s">
         <v>423</v>
       </c>
@@ -21138,7 +21138,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A308" s="11" t="s">
         <v>424</v>
       </c>
@@ -21200,7 +21200,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A309" s="11" t="s">
         <v>425</v>
       </c>
@@ -21262,7 +21262,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A310" s="11" t="s">
         <v>426</v>
       </c>
@@ -21324,7 +21324,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A311" s="11" t="s">
         <v>427</v>
       </c>
@@ -21386,7 +21386,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A312" s="11" t="s">
         <v>428</v>
       </c>
@@ -21448,7 +21448,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A313" s="11" t="s">
         <v>429</v>
       </c>
@@ -21510,7 +21510,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A314" s="11" t="s">
         <v>430</v>
       </c>
@@ -21572,7 +21572,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A315" s="11" t="s">
         <v>431</v>
       </c>
@@ -21634,7 +21634,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A316" s="11" t="s">
         <v>432</v>
       </c>
@@ -21696,7 +21696,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A317" s="11" t="s">
         <v>433</v>
       </c>
@@ -21758,7 +21758,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A318" s="11" t="s">
         <v>434</v>
       </c>
@@ -21820,7 +21820,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A319" s="11" t="s">
         <v>435</v>
       </c>
@@ -21882,7 +21882,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A320" s="11" t="s">
         <v>436</v>
       </c>
@@ -21944,7 +21944,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A321" s="11" t="s">
         <v>437</v>
       </c>
@@ -22006,7 +22006,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A322" s="11" t="s">
         <v>438</v>
       </c>
@@ -22068,7 +22068,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A323" s="11" t="s">
         <v>439</v>
       </c>
@@ -22112,7 +22112,7 @@
         <v>0</v>
       </c>
       <c r="O323">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="P323" s="1">
         <v>15</v>
@@ -22130,7 +22130,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A324" s="11" t="s">
         <v>440</v>
       </c>
@@ -22192,7 +22192,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A325" s="11" t="s">
         <v>441</v>
       </c>
@@ -22254,7 +22254,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A326" s="11" t="s">
         <v>442</v>
       </c>
@@ -22316,7 +22316,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A327" s="11" t="s">
         <v>443</v>
       </c>
@@ -22378,7 +22378,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A328" s="11" t="s">
         <v>444</v>
       </c>
@@ -22398,7 +22398,7 @@
         <v>226</v>
       </c>
       <c r="G328">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="H328">
         <v>0</v>
@@ -22422,7 +22422,7 @@
         <v>0</v>
       </c>
       <c r="O328">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="P328" s="1">
         <v>15</v>
@@ -22440,7 +22440,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A329" s="11" t="s">
         <v>445</v>
       </c>
@@ -22502,7 +22502,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A330" s="11" t="s">
         <v>446</v>
       </c>
@@ -22564,7 +22564,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A331" s="11" t="s">
         <v>447</v>
       </c>
@@ -22626,7 +22626,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A332" s="11" t="s">
         <v>448</v>
       </c>
@@ -22688,7 +22688,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A333" s="11" t="s">
         <v>449</v>
       </c>
@@ -22750,7 +22750,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A334" s="11" t="s">
         <v>450</v>
       </c>
@@ -22812,7 +22812,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A335" s="11" t="s">
         <v>451</v>
       </c>
@@ -22874,7 +22874,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A336" s="11" t="s">
         <v>452</v>
       </c>
@@ -22936,7 +22936,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A337" s="11" t="s">
         <v>453</v>
       </c>
@@ -22998,7 +22998,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A338" s="11" t="s">
         <v>454</v>
       </c>
@@ -23060,7 +23060,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A339" s="11" t="s">
         <v>455</v>
       </c>
@@ -23122,7 +23122,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A340" s="11" t="s">
         <v>456</v>
       </c>
@@ -23184,7 +23184,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A341" s="11" t="s">
         <v>457</v>
       </c>
@@ -23246,7 +23246,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A342" s="11" t="s">
         <v>458</v>
       </c>
@@ -23308,7 +23308,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A343" s="11" t="s">
         <v>459</v>
       </c>
@@ -23370,7 +23370,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A344" s="11" t="s">
         <v>460</v>
       </c>
@@ -23432,7 +23432,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A345" s="11" t="s">
         <v>461</v>
       </c>
@@ -23494,7 +23494,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A346" s="11" t="s">
         <v>462</v>
       </c>
@@ -23556,7 +23556,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A347" s="11" t="s">
         <v>463</v>
       </c>
@@ -23618,7 +23618,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A348" s="11" t="s">
         <v>464</v>
       </c>
@@ -23680,7 +23680,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A349" s="11" t="s">
         <v>465</v>
       </c>
@@ -23742,7 +23742,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A350" s="11" t="s">
         <v>466</v>
       </c>
@@ -23804,7 +23804,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A351" s="11" t="s">
         <v>467</v>
       </c>
@@ -23866,7 +23866,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A352" s="11" t="s">
         <v>468</v>
       </c>
@@ -23928,7 +23928,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A353" s="11" t="s">
         <v>469</v>
       </c>
@@ -23990,7 +23990,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A354" s="11" t="s">
         <v>470</v>
       </c>
@@ -24052,7 +24052,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A355" s="11" t="s">
         <v>471</v>
       </c>
@@ -24114,7 +24114,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A356" s="11" t="s">
         <v>472</v>
       </c>
@@ -24176,7 +24176,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A357" s="11" t="s">
         <v>473</v>
       </c>
@@ -24238,7 +24238,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A358" s="11" t="s">
         <v>474</v>
       </c>
@@ -24300,7 +24300,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A359" s="11" t="s">
         <v>475</v>
       </c>
@@ -24362,7 +24362,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A360" s="11" t="s">
         <v>476</v>
       </c>
@@ -24424,7 +24424,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="361" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A361" s="11" t="s">
         <v>477</v>
       </c>
@@ -24486,7 +24486,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A362" s="11" t="s">
         <v>478</v>
       </c>
@@ -24548,7 +24548,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A363" s="11" t="s">
         <v>479</v>
       </c>
@@ -24610,7 +24610,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="364" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A364" s="11" t="s">
         <v>480</v>
       </c>
@@ -24672,7 +24672,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A365" s="11" t="s">
         <v>481</v>
       </c>
@@ -24734,7 +24734,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A366" s="11" t="s">
         <v>482</v>
       </c>
@@ -24796,7 +24796,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A367" s="11" t="s">
         <v>483</v>
       </c>
@@ -24858,7 +24858,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A368" s="11" t="s">
         <v>484</v>
       </c>
@@ -24920,7 +24920,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="369" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A369" s="11" t="s">
         <v>485</v>
       </c>
@@ -24982,7 +24982,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A370" s="11" t="s">
         <v>486</v>
       </c>
@@ -25044,7 +25044,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A371" s="11" t="s">
         <v>487</v>
       </c>
@@ -25106,7 +25106,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A372" s="11" t="s">
         <v>488</v>
       </c>
@@ -25168,7 +25168,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="373" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A373" s="11" t="s">
         <v>489</v>
       </c>
@@ -25230,7 +25230,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A374" s="11" t="s">
         <v>490</v>
       </c>
@@ -25292,7 +25292,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="375" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A375" s="11" t="s">
         <v>491</v>
       </c>
@@ -25354,7 +25354,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A376" s="11" t="s">
         <v>492</v>
       </c>
@@ -25416,7 +25416,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B377" s="11" t="s">
         <v>7</v>
       </c>
@@ -25451,13 +25451,13 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="130.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="130.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="10"/>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -25466,7 +25466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>8</v>
       </c>
@@ -25480,7 +25480,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>21</v>
       </c>
@@ -25494,7 +25494,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>29</v>
       </c>
@@ -25508,7 +25508,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>25</v>
       </c>
@@ -25522,7 +25522,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>30</v>
       </c>
@@ -25536,7 +25536,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -25550,7 +25550,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>12</v>
       </c>
@@ -25564,7 +25564,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>5</v>
       </c>
@@ -25578,7 +25578,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>14</v>
       </c>
@@ -25592,7 +25592,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>22</v>
       </c>
@@ -25606,7 +25606,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>15</v>
       </c>
@@ -25620,7 +25620,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>7</v>
       </c>
@@ -25634,7 +25634,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>2</v>
       </c>
@@ -25648,7 +25648,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>11</v>
       </c>
@@ -25662,7 +25662,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>31</v>
       </c>
@@ -25676,7 +25676,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>28</v>
       </c>
@@ -25690,7 +25690,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>27</v>
       </c>
@@ -25704,7 +25704,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>23</v>
       </c>
@@ -25718,7 +25718,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>10</v>
       </c>
@@ -25732,7 +25732,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>4</v>
       </c>
@@ -25746,7 +25746,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>24</v>
       </c>
@@ -25760,7 +25760,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>6</v>
       </c>
@@ -25774,7 +25774,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>32</v>
       </c>
@@ -25788,7 +25788,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>9</v>
       </c>
@@ -25802,7 +25802,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>19</v>
       </c>
@@ -25816,7 +25816,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>3</v>
       </c>
@@ -25830,7 +25830,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>33</v>
       </c>
@@ -25844,7 +25844,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
         <v>18</v>
       </c>
@@ -25858,7 +25858,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>13</v>
       </c>
@@ -25872,7 +25872,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>17</v>
       </c>
@@ -25886,7 +25886,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
         <v>20</v>
       </c>
@@ -25900,7 +25900,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
         <v>16</v>
       </c>
@@ -25933,137 +25933,137 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>75</v>
       </c>
